--- a/resources/testSpreadsheetNew.xlsx
+++ b/resources/testSpreadsheetNew.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
